--- a/data/characters/stats/ISML2024-characters.xlsx
+++ b/data/characters/stats/ISML2024-characters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ISML\ISML2024\data\characters\stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ISML\ISML2024-github\data\characters\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1925517F-AFB2-4C47-A560-7CC3E5D9D617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7638FCBE-ED67-4F06-B159-E023CD41DC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4292" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="1954">
   <si>
     <t>ID</t>
   </si>
@@ -5467,6 +5467,564 @@
   <si>
     <t>天使降临到了我身边！</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFA001</t>
+  </si>
+  <si>
+    <t>鹿野千夏</t>
+  </si>
+  <si>
+    <t>青之箱</t>
+  </si>
+  <si>
+    <t>已晋级至秋季赛预选赛</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>NFA002</t>
+  </si>
+  <si>
+    <t>蝶野雏</t>
+  </si>
+  <si>
+    <t>NFA003</t>
+  </si>
+  <si>
+    <t>绫濑桃</t>
+  </si>
+  <si>
+    <t>胆大党</t>
+  </si>
+  <si>
+    <t>NFA004</t>
+  </si>
+  <si>
+    <t>夏目玲子</t>
+  </si>
+  <si>
+    <t>小林沙苗</t>
+  </si>
+  <si>
+    <t>NFA005</t>
+  </si>
+  <si>
+    <t>多轨透</t>
+  </si>
+  <si>
+    <t>佐藤利奈</t>
+  </si>
+  <si>
+    <t>NFA006</t>
+  </si>
+  <si>
+    <t>甘神夜重‌</t>
+  </si>
+  <si>
+    <t>缘结甘神家</t>
+  </si>
+  <si>
+    <t>NFA007</t>
+  </si>
+  <si>
+    <t>涩谷香音</t>
+  </si>
+  <si>
+    <t>伊达小百合</t>
+  </si>
+  <si>
+    <t>NFA008</t>
+  </si>
+  <si>
+    <t>津岛善子</t>
+  </si>
+  <si>
+    <t>小林爱香</t>
+  </si>
+  <si>
+    <t>NFA009</t>
+  </si>
+  <si>
+    <t>噗妮露</t>
+  </si>
+  <si>
+    <t>噗妮露是可爱史莱姆</t>
+  </si>
+  <si>
+    <t>篠原侑</t>
+  </si>
+  <si>
+    <t>NFA010</t>
+  </si>
+  <si>
+    <t>玛姬娜·索雷斯</t>
+  </si>
+  <si>
+    <t>魔王2099</t>
+  </si>
+  <si>
+    <t>NFA011</t>
+  </si>
+  <si>
+    <t>和泉妃爱</t>
+  </si>
+  <si>
+    <t>常轨脱离Creative</t>
+  </si>
+  <si>
+    <t>户田惠</t>
+  </si>
+  <si>
+    <t>NFA012</t>
+  </si>
+  <si>
+    <t>甘神朝姬</t>
+  </si>
+  <si>
+    <t>NFA013</t>
+  </si>
+  <si>
+    <t>甘神夕奈‌</t>
+  </si>
+  <si>
+    <t>NFA014</t>
+  </si>
+  <si>
+    <t>本城寺莉香</t>
+  </si>
+  <si>
+    <t>听说你们要结婚！？</t>
+  </si>
+  <si>
+    <t>NFA015</t>
+  </si>
+  <si>
+    <t>威廉姆斯·艾丽希亚</t>
+  </si>
+  <si>
+    <t>成为名垂青史的恶役千金吧</t>
+  </si>
+  <si>
+    <t>中村栞奈</t>
+  </si>
+  <si>
+    <t>NFA016</t>
+  </si>
+  <si>
+    <t>白鸟爱罗</t>
+  </si>
+  <si>
+    <t>NFA017</t>
+  </si>
+  <si>
+    <t>白石万理华</t>
+  </si>
+  <si>
+    <t>妻子变成小学生。</t>
+  </si>
+  <si>
+    <t>NFA018</t>
+  </si>
+  <si>
+    <t>天道茜</t>
+  </si>
+  <si>
+    <t>乱马½</t>
+  </si>
+  <si>
+    <t>日高范子</t>
+  </si>
+  <si>
+    <t>NFA019</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>女仆冥土小姐。</t>
+  </si>
+  <si>
+    <t>NFA020</t>
+  </si>
+  <si>
+    <t>吉尔·萨维尔</t>
+  </si>
+  <si>
+    <t>重启人生的千金小姐正在攻略龙帝陛下</t>
+  </si>
+  <si>
+    <t>内田秀</t>
+  </si>
+  <si>
+    <t>NFA021</t>
+  </si>
+  <si>
+    <t>小比类卷香莲</t>
+  </si>
+  <si>
+    <t>楠木灯</t>
+  </si>
+  <si>
+    <t>NFA022</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>平凡职业成就世界最强</t>
+  </si>
+  <si>
+    <t>NFA023</t>
+  </si>
+  <si>
+    <t>碧翠丝</t>
+  </si>
+  <si>
+    <t>NFA024</t>
+  </si>
+  <si>
+    <t>鲇川花</t>
+  </si>
+  <si>
+    <t>悲喜渔生</t>
+  </si>
+  <si>
+    <t>NFA025</t>
+  </si>
+  <si>
+    <t>伊达地图子</t>
+  </si>
+  <si>
+    <t>Acro Trip 顶尖恶路</t>
+  </si>
+  <si>
+    <t>NFA026</t>
+  </si>
+  <si>
+    <t>樱木加奈</t>
+  </si>
+  <si>
+    <t>魔法光源股份有限公司</t>
+  </si>
+  <si>
+    <t>NFA027</t>
+  </si>
+  <si>
+    <t>约兰达</t>
+  </si>
+  <si>
+    <t>地。-关于地球的运动-</t>
+  </si>
+  <si>
+    <t>仁见纱绫</t>
+  </si>
+  <si>
+    <t>NFA028</t>
+  </si>
+  <si>
+    <t>绫濑美春</t>
+  </si>
+  <si>
+    <t>精灵幻想记</t>
+  </si>
+  <si>
+    <t>原田彩枫</t>
+  </si>
+  <si>
+    <t>NFA029</t>
+  </si>
+  <si>
+    <t>瑟莉亚·库列尔</t>
+  </si>
+  <si>
+    <t>NFA030</t>
+  </si>
+  <si>
+    <t>八寻宁宁</t>
+  </si>
+  <si>
+    <t>NFA031</t>
+  </si>
+  <si>
+    <t>锦明日海</t>
+  </si>
+  <si>
+    <t>䌷雪乃</t>
+  </si>
+  <si>
+    <t>ENFA001</t>
+  </si>
+  <si>
+    <t>岚千砂都</t>
+  </si>
+  <si>
+    <t>岬奈子</t>
+  </si>
+  <si>
+    <t>ENFA002</t>
+  </si>
+  <si>
+    <t>薇恩·玛格丽特</t>
+  </si>
+  <si>
+    <t>结那</t>
+  </si>
+  <si>
+    <t>ENFA003</t>
+  </si>
+  <si>
+    <t>平安名堇</t>
+  </si>
+  <si>
+    <t>Payton尚未</t>
+  </si>
+  <si>
+    <t>NMA001</t>
+  </si>
+  <si>
+    <t>猪股大喜</t>
+  </si>
+  <si>
+    <t>NMA002</t>
+  </si>
+  <si>
+    <t>高仓健</t>
+  </si>
+  <si>
+    <t>NMA003</t>
+  </si>
+  <si>
+    <t>田沼要</t>
+  </si>
+  <si>
+    <t>堀江一真</t>
+  </si>
+  <si>
+    <t>NMA004</t>
+  </si>
+  <si>
+    <t>鸭乃桥论</t>
+  </si>
+  <si>
+    <t>鸭乃桥论的禁忌推理</t>
+  </si>
+  <si>
+    <t>NMA005</t>
+  </si>
+  <si>
+    <t>藤丸立香</t>
+  </si>
+  <si>
+    <t>NMA006</t>
+  </si>
+  <si>
+    <t>早乙女乱马</t>
+  </si>
+  <si>
+    <t>NMA007</t>
+  </si>
+  <si>
+    <t>中野丸尾</t>
+  </si>
+  <si>
+    <t>黑田崇矢</t>
+  </si>
+  <si>
+    <t>NMA008</t>
+  </si>
+  <si>
+    <t>多兰</t>
+  </si>
+  <si>
+    <t>再见龙生，你好人生</t>
+  </si>
+  <si>
+    <t>武内骏辅</t>
+  </si>
+  <si>
+    <t>NMA009</t>
+  </si>
+  <si>
+    <t>佐佐木常宏</t>
+  </si>
+  <si>
+    <t>岩中睦树</t>
+  </si>
+  <si>
+    <t>NMA010</t>
+  </si>
+  <si>
+    <t>拉法尔</t>
+  </si>
+  <si>
+    <t>NMA011</t>
+  </si>
+  <si>
+    <t>圆城寺仁</t>
+  </si>
+  <si>
+    <t>NMA012</t>
+  </si>
+  <si>
+    <t>大原拓也</t>
+  </si>
+  <si>
+    <t>NMA013</t>
+  </si>
+  <si>
+    <t>贝尔多尔·贝尔别特·贝尔休伯特</t>
+  </si>
+  <si>
+    <t>NMA014</t>
+  </si>
+  <si>
+    <t>上终瓜生</t>
+  </si>
+  <si>
+    <t>NMA015</t>
+  </si>
+  <si>
+    <t>贝尔·克朗尼</t>
+  </si>
+  <si>
+    <t>在地下城寻求邂逅是否搞错了什么</t>
+  </si>
+  <si>
+    <t>NMA016</t>
+  </si>
+  <si>
+    <t>踯躅森贵明</t>
+  </si>
+  <si>
+    <t>NMA017</t>
+  </si>
+  <si>
+    <t>花散仁央</t>
+  </si>
+  <si>
+    <t>青之壬生浪</t>
+  </si>
+  <si>
+    <t>NMA018</t>
+  </si>
+  <si>
+    <t>哈迪斯·迪奥斯·拉维</t>
+  </si>
+  <si>
+    <t>户谷菊之介</t>
+  </si>
+  <si>
+    <t>NMA019</t>
+  </si>
+  <si>
+    <t>河合井小太郎</t>
+  </si>
+  <si>
+    <t>NMA020</t>
+  </si>
+  <si>
+    <t>克莱·安东黎希</t>
+  </si>
+  <si>
+    <t>叹气的亡灵想隐退</t>
+  </si>
+  <si>
+    <t>NMA021</t>
+  </si>
+  <si>
+    <t>新岛圭介</t>
+  </si>
+  <si>
+    <t>NMA022</t>
+  </si>
+  <si>
+    <t>南云始</t>
+  </si>
+  <si>
+    <t>深町寿成</t>
+  </si>
+  <si>
+    <t>NMA023</t>
+  </si>
+  <si>
+    <t>天束光</t>
+  </si>
+  <si>
+    <t>机械手臂</t>
+  </si>
+  <si>
+    <t>NMA024</t>
+  </si>
+  <si>
+    <t>库洛马</t>
+  </si>
+  <si>
+    <t>NMA025</t>
+  </si>
+  <si>
+    <t>遥</t>
+  </si>
+  <si>
+    <t>孤单一人的异世界攻略</t>
+  </si>
+  <si>
+    <t>NMA026</t>
+  </si>
+  <si>
+    <t>阳务乐郎</t>
+  </si>
+  <si>
+    <t>香格里拉边境～粪作猎人向神作游戏发起挑战～</t>
+  </si>
+  <si>
+    <t>NMA027</t>
+  </si>
+  <si>
+    <t>五十岚一贺</t>
+  </si>
+  <si>
+    <t>喂！蜻蜓</t>
+  </si>
+  <si>
+    <t>NMA028</t>
+  </si>
+  <si>
+    <t>雷格西</t>
+  </si>
+  <si>
+    <t>BEASTARS</t>
+  </si>
+  <si>
+    <t>小林亲弘</t>
+  </si>
+  <si>
+    <t>NMA029</t>
+  </si>
+  <si>
+    <t>奥托·苏文</t>
+  </si>
+  <si>
+    <t>NMA030</t>
+  </si>
+  <si>
+    <t>利欧</t>
+  </si>
+  <si>
+    <t>NMA031</t>
+  </si>
+  <si>
+    <t>重本浩司</t>
+  </si>
+  <si>
+    <t>NMA032</t>
+  </si>
+  <si>
+    <t>常盘</t>
+  </si>
+  <si>
+    <t>去参加联谊，却发现完全没有女生在场</t>
   </si>
 </sst>
 </file>
@@ -5819,10 +6377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I523"/>
+  <dimension ref="A1:I589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A563" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E592" sqref="E592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19762,6 +20320,1722 @@
         <v>325</v>
       </c>
     </row>
+    <row r="524" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A524" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I524" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H525" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I527" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A528" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A529" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I529" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A530" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A531" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I531" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A532" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I532" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A533" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I533" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A534" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I534" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A535" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I535" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A536" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I536" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A537" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A538" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A539" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A540" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G540" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I540" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A541" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I541" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A542" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I542" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A543" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A544" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I544" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A545" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I545" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G546" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I546" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I547" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A548" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I548" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A549" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I549" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A550" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G550" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I550" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A551" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G551" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I551" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A552" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I552" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A553" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I553" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A554" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I554" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A555" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I555" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A556" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I556" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A557" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I557" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A558" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I558" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A559" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I559" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A560" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I560" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H561" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I561" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A562" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H562" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I562" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A563" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H563" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I563" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A564" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I564" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A565" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G565" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H565" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I565" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A566" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G566" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H566" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I566" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A567" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G567" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H567" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I567" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A568" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G568" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H568" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I568" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A569" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G569" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H569" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I569" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G570" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H570" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I570" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G571" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H571" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I571" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A572" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G572" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H572" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I572" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A573" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G573" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H573" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I573" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A574" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G574" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I574" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G575" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H575" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I575" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G576" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H576" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I576" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G577" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H577" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I577" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G578" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H578" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I578" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G579" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H579" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I579" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G580" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H580" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I580" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G581" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H581" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I581" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A582" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H582" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I582" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H583" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I583" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G584" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H584" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I584" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A585" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G585" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H585" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I585" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A586" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G586" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H586" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I586" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G587" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H587" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I587" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G588" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H588" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I588" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G589" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H589" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I589" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
